--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Plau-Plaur.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H2">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J2">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N2">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P2">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q2">
-        <v>193.1406336736783</v>
+        <v>795.4053836397972</v>
       </c>
       <c r="R2">
-        <v>193.1406336736783</v>
+        <v>7158.648452758175</v>
       </c>
       <c r="S2">
-        <v>0.01882077234952252</v>
+        <v>0.04879155296602647</v>
       </c>
       <c r="T2">
-        <v>0.01882077234952252</v>
+        <v>0.04879155296602646</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H3">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J3">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N3">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P3">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q3">
-        <v>100.8896140297874</v>
+        <v>147.6684675811733</v>
       </c>
       <c r="R3">
-        <v>100.8896140297874</v>
+        <v>1329.01620823056</v>
       </c>
       <c r="S3">
-        <v>0.009831284188981087</v>
+        <v>0.009058241251056939</v>
       </c>
       <c r="T3">
-        <v>0.009831284188981087</v>
+        <v>0.009058241251056936</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H4">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J4">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N4">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P4">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q4">
-        <v>584.258054513072</v>
+        <v>960.0932287347624</v>
       </c>
       <c r="R4">
-        <v>584.258054513072</v>
+        <v>8640.839058612863</v>
       </c>
       <c r="S4">
-        <v>0.05693358061537746</v>
+        <v>0.05889379250587174</v>
       </c>
       <c r="T4">
-        <v>0.05693358061537746</v>
+        <v>0.05889379250587172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3740453872804</v>
+        <v>19.434592</v>
       </c>
       <c r="H5">
-        <v>13.3740453872804</v>
+        <v>58.303776</v>
       </c>
       <c r="I5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="J5">
-        <v>0.09374980159701224</v>
+        <v>0.1244167820899015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N5">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O5">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P5">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q5">
-        <v>83.78146574853352</v>
+        <v>125.0892938136</v>
       </c>
       <c r="R5">
-        <v>83.78146574853352</v>
+        <v>1125.8036443224</v>
       </c>
       <c r="S5">
-        <v>0.008164164443131176</v>
+        <v>0.007673195366946393</v>
       </c>
       <c r="T5">
-        <v>0.008164164443131176</v>
+        <v>0.007673195366946392</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H6">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J6">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N6">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O6">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P6">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q6">
-        <v>689.6326914167665</v>
+        <v>2001.015316895815</v>
       </c>
       <c r="R6">
-        <v>689.6326914167665</v>
+        <v>18009.13785206233</v>
       </c>
       <c r="S6">
-        <v>0.06720191211484228</v>
+        <v>0.1227457681684058</v>
       </c>
       <c r="T6">
-        <v>0.06720191211484228</v>
+        <v>0.1227457681684057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H7">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J7">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N7">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O7">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P7">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q7">
-        <v>360.2389343762578</v>
+        <v>371.4921617707751</v>
       </c>
       <c r="R7">
-        <v>360.2389343762578</v>
+        <v>3343.429455936976</v>
       </c>
       <c r="S7">
-        <v>0.03510382484705559</v>
+        <v>0.02278797687357713</v>
       </c>
       <c r="T7">
-        <v>0.03510382484705559</v>
+        <v>0.02278797687357712</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H8">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J8">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N8">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O8">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P8">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q8">
-        <v>2086.166162717137</v>
+        <v>2415.32342609366</v>
       </c>
       <c r="R8">
-        <v>2086.166162717137</v>
+        <v>21737.91083484294</v>
       </c>
       <c r="S8">
-        <v>0.2032884416135532</v>
+        <v>0.1481601499037641</v>
       </c>
       <c r="T8">
-        <v>0.2032884416135532</v>
+        <v>0.148160149903764</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7536950155359</v>
+        <v>48.891945</v>
       </c>
       <c r="H9">
-        <v>47.7536950155359</v>
+        <v>146.675835</v>
       </c>
       <c r="I9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="J9">
-        <v>0.3347453447024001</v>
+        <v>0.3129974875220664</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N9">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O9">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P9">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q9">
-        <v>299.1521598330399</v>
+        <v>314.689337096625</v>
       </c>
       <c r="R9">
-        <v>299.1521598330399</v>
+        <v>2832.204033869625</v>
       </c>
       <c r="S9">
-        <v>0.02915116612694912</v>
+        <v>0.01930359257631948</v>
       </c>
       <c r="T9">
-        <v>0.02915116612694912</v>
+        <v>0.01930359257631947</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H10">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J10">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N10">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O10">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P10">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q10">
-        <v>858.1833331241975</v>
+        <v>2668.195182100176</v>
       </c>
       <c r="R10">
-        <v>858.1833331241975</v>
+        <v>24013.75663890159</v>
       </c>
       <c r="S10">
-        <v>0.08362648935994541</v>
+        <v>0.1636717442813945</v>
       </c>
       <c r="T10">
-        <v>0.08362648935994541</v>
+        <v>0.1636717442813945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H11">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J11">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N11">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O11">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P11">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q11">
-        <v>448.2836345664134</v>
+        <v>495.3553267960167</v>
       </c>
       <c r="R11">
-        <v>448.2836345664134</v>
+        <v>4458.197941164151</v>
       </c>
       <c r="S11">
-        <v>0.04368342421639696</v>
+        <v>0.03038595936297598</v>
       </c>
       <c r="T11">
-        <v>0.04368342421639696</v>
+        <v>0.03038595936297597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H12">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J12">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N12">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O12">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P12">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q12">
-        <v>2596.038519133323</v>
+        <v>3220.642178148973</v>
       </c>
       <c r="R12">
-        <v>2596.038519133323</v>
+        <v>28985.77960334076</v>
       </c>
       <c r="S12">
-        <v>0.2529734372817196</v>
+        <v>0.1975598061716616</v>
       </c>
       <c r="T12">
-        <v>0.2529734372817196</v>
+        <v>0.1975598061716615</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.4250035815988</v>
+        <v>65.19353</v>
       </c>
       <c r="H13">
-        <v>59.4250035815988</v>
+        <v>195.58059</v>
       </c>
       <c r="I13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="J13">
-        <v>0.416559248481024</v>
+        <v>0.4173573191390618</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N13">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O13">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P13">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q13">
-        <v>372.2668615221904</v>
+        <v>419.61326633025</v>
       </c>
       <c r="R13">
-        <v>372.2668615221904</v>
+        <v>3776.51939697225</v>
       </c>
       <c r="S13">
-        <v>0.03627589762296205</v>
+        <v>0.02573980932302981</v>
       </c>
       <c r="T13">
-        <v>0.03627589762296205</v>
+        <v>0.02573980932302981</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H14">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J14">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4414519377486</v>
+        <v>40.92730033333333</v>
       </c>
       <c r="N14">
-        <v>14.4414519377486</v>
+        <v>122.781901</v>
       </c>
       <c r="O14">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="P14">
-        <v>0.2007553299197844</v>
+        <v>0.3921621516522625</v>
       </c>
       <c r="Q14">
-        <v>319.2144609083828</v>
+        <v>928.455616875028</v>
       </c>
       <c r="R14">
-        <v>319.2144609083828</v>
+        <v>8356.100551875252</v>
       </c>
       <c r="S14">
-        <v>0.03110615609547416</v>
+        <v>0.05695308623643584</v>
       </c>
       <c r="T14">
-        <v>0.03110615609547416</v>
+        <v>0.05695308623643583</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H15">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J15">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.54368712743715</v>
+        <v>7.598228333333334</v>
       </c>
       <c r="N15">
-        <v>7.54368712743715</v>
+        <v>22.794685</v>
       </c>
       <c r="O15">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174674</v>
       </c>
       <c r="P15">
-        <v>0.1048672532795462</v>
+        <v>0.07280562235174673</v>
       </c>
       <c r="Q15">
-        <v>166.7459774838796</v>
+        <v>172.36948728418</v>
       </c>
       <c r="R15">
-        <v>166.7459774838796</v>
+        <v>1551.32538555762</v>
       </c>
       <c r="S15">
-        <v>0.01624872002711256</v>
+        <v>0.0105734448641367</v>
       </c>
       <c r="T15">
-        <v>0.01624872002711256</v>
+        <v>0.0105734448641367</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H16">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J16">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.6859631917161</v>
+        <v>49.40125466666666</v>
       </c>
       <c r="N16">
-        <v>43.6859631917161</v>
+        <v>148.203764</v>
       </c>
       <c r="O16">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063359</v>
       </c>
       <c r="P16">
-        <v>0.6072928117769149</v>
+        <v>0.4733589112063358</v>
       </c>
       <c r="Q16">
-        <v>965.6363674247801</v>
+        <v>1120.691372320592</v>
       </c>
       <c r="R16">
-        <v>965.6363674247801</v>
+        <v>10086.22235088533</v>
       </c>
       <c r="S16">
-        <v>0.09409735226626462</v>
+        <v>0.06874516262503856</v>
       </c>
       <c r="T16">
-        <v>0.09409735226626462</v>
+        <v>0.06874516262503855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>22.1040420509233</v>
+        <v>22.685484</v>
       </c>
       <c r="H17">
-        <v>22.1040420509233</v>
+        <v>68.05645200000001</v>
       </c>
       <c r="I17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="J17">
-        <v>0.1549456052195636</v>
+        <v>0.1452284112489703</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.26448193664837</v>
+        <v>6.436425</v>
       </c>
       <c r="N17">
-        <v>6.26448193664837</v>
+        <v>19.309275</v>
       </c>
       <c r="O17">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="P17">
-        <v>0.08708460502375467</v>
+        <v>0.06167331478965488</v>
       </c>
       <c r="Q17">
-        <v>138.470372154925</v>
+        <v>146.0134163547</v>
       </c>
       <c r="R17">
-        <v>138.470372154925</v>
+        <v>1314.1207471923</v>
       </c>
       <c r="S17">
-        <v>0.01349337683071232</v>
+        <v>0.008956717523359201</v>
       </c>
       <c r="T17">
-        <v>0.01349337683071232</v>
+        <v>0.008956717523359199</v>
       </c>
     </row>
   </sheetData>
